--- a/EXCEL FILES/E- file Outputfile-2.xlsx
+++ b/EXCEL FILES/E- file Outputfile-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee\Downloads\EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12964BA8-A6C6-4AF2-A921-9703991EB12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162903C-8554-4150-B0C7-F1C55A0AAC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14698" uniqueCount="10247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14699" uniqueCount="10248">
   <si>
     <t>Name of company</t>
   </si>
@@ -30778,6 +30778,9 @@
   </si>
   <si>
     <t>Total number of differences</t>
+  </si>
+  <si>
+    <t>Total Time taken</t>
   </si>
 </sst>
 </file>
@@ -30796,6 +30799,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -30859,26 +30863,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31182,10 +31183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U995"/>
+  <dimension ref="A1:V995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C76" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31205,7 +31206,7 @@
     <col min="18" max="18" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -31248,10 +31249,10 @@
       <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>10241</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>10244</v>
       </c>
       <c r="R1" s="4" t="s">
@@ -31260,11 +31261,14 @@
       <c r="S1" s="4" t="s">
         <v>10245</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="5" t="s">
         <v>10246</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="6" t="s">
+        <v>10247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -31322,48 +31326,51 @@
       <c r="U2" s="2">
         <v>319</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="V2" s="7">
+        <v>4.5520833333333337E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" t="s">
         <v>39</v>
       </c>
       <c r="P3" s="2">
@@ -31372,54 +31379,54 @@
       <c r="Q3" s="2">
         <v>0</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" t="s">
         <v>51</v>
       </c>
       <c r="P4" s="2">
@@ -31428,14 +31435,14 @@
       <c r="Q4" s="2">
         <v>0</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -31491,7 +31498,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -31547,7 +31554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -31603,47 +31610,47 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" t="s">
         <v>100</v>
       </c>
       <c r="P8" s="2">
@@ -31652,14 +31659,14 @@
       <c r="Q8" s="2">
         <v>0</v>
       </c>
-      <c r="R8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -31715,7 +31722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -31771,44 +31778,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" t="s">
         <v>134</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" t="s">
         <v>135</v>
       </c>
       <c r="P11" s="2">
@@ -31817,14 +31824,14 @@
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -31880,7 +31887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -31936,7 +31943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -31992,7 +31999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -32048,7 +32055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
